--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_end.xlsx
@@ -1560,7 +1560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="지나가던 팬"]  와~ 또 쉽게 몇 점을 벌었네. 오늘은 일진이 좋은 걸? 그럼…… 계속해볼까? 리틀 니어.
+    <t xml:space="preserve">[name="지나가던 팬"]  와~ 또 쉽게 몇 점을 벌었네. 오늘은 일진이 좋은걸? 그럼…… 계속해볼까? 리틀 니어.
 </t>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="지나가던 팬"]  이 정도면……. 불만이 안 생기는 게 더 이상하지 않아?
+    <t xml:space="preserve">[name="지나가던 팬"]  이 정도면…… 불만이 안 생기는 게 더 이상하지 않아?
 </t>
   </si>
   <si>
@@ -1628,7 +1628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="지나가던 팬"]  널 여기서 탈락시키지 않을게…… 감염자고 뭐고를 떠나서, 어쨌건 난 진심으로 빛의 기사를 존경하니까.
+    <t xml:space="preserve">[name="지나가던 팬"]  널 여기서 탈락시키진 않을게…… 감염자고 뭐고를 떠나서, 어쨌건 난 진심으로 빛의 기사를 존경하니까.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_end.xlsx
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Wait—as I was saying that, it looks like “Hoarhair” has taken a point off “Springwater”—oh! And “Drifter” Dorka barges in to pick them off! Now that’s what I call productive!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Wait—as I was saying that, it looks like 'Hoarhair' has taken a point off 'Springwater'—oh! And 'Drifter' Dorka barges in to pick them off! Now that’s what I call productive!   
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Gałązka” Knight"]  That’s all you’re capable of? How the hell did you beat Ingra?! 
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  That’s all you’re capable of? How the hell did you beat Ingra?! 
 </t>
   </si>
   <si>
@@ -972,7 +972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Gałązka” Knight"]  Heh, I’ll tear you right off that scoreboard, “Nearl!” Watch this!
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  Heh, I’ll tear you right off that scoreboard, 'Nearl!' Watch this!
 </t>
   </si>
   <si>
@@ -980,7 +980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Gałązka” Knight"]  Uagh—?! 
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  Uagh—?! 
 </t>
   </si>
   <si>
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  And right after “Gałązka” comes “Flametail”! Whoa, way-way-way, how many times has someone come for the Nascent Nearl now? You gotta get your own show, Maria!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  And right after 'Gałązka' comes 'Flametail'! Whoa, way-way-way, how many times has someone come for the Nascent Nearl now? You gotta get your own show, Maria!  
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Gałązka” Knight"]  Urrrrraaahhh! You stinking little squirrel—! 
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  Urrrrraaahhh! You stinking little squirrel—! 
 </t>
   </si>
   <si>
@@ -1080,7 +1080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Gałązka” Knight"]  Hah! Knocked away your weapon! What are you gonna do now, huh?! 
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  Hah! Knocked away your weapon! What are you gonna do now, huh?! 
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Gałązka” Knight"]  Don’t waste your breath! You’ll meet your end right here! 
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  Don’t waste your breath! You’ll meet your end right here! 
 </t>
   </si>
   <si>
@@ -1096,11 +1096,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Gałązka” Knight"]  What the hell? Arts—no, you can’t be, you’re not even armed!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Gałązka” Knight"]  No, you... you... you can’t be—
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  What the hell? Arts—no, you can’t be, you’re not even armed!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  No, you... you... you can’t be—
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  When the Blood Knight took the title, they went “yeah, we’ll officially let Infected be knights”—but when the Radiant Knight got infected, they chased her completely out of Kazimierz. Doesn’t that suck?
+    <t xml:space="preserve">[name="Passing Fan"]  When the Blood Knight took the title, they went 'yeah, we’ll officially let Infected be knights'—but when the Radiant Knight got infected, they chased her completely out of Kazimierz. Doesn’t that suck?
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Welcome to the bottom line. They weren’t gonna give the Infected any respect for a single second. “Just throw them into the machine. Make them one more symbol of our progress.”
+    <t xml:space="preserve">[name="Passing Fan"]  Welcome to the bottom line. They weren’t gonna give the Infected any respect for a single second. 'Just throw them into the machine. Make them one more symbol of our progress.'
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Let’s call the points I’ve already taken a fee, and here’s a lesson on behalf of “Whislash”. From the match where you beat Ingra, I can tell you still don’t understand what the actual significance of the Major is.
+    <t xml:space="preserve">[name="Passing Fan"]  Let’s call the points I’ve already taken a fee, and here’s a lesson on behalf of 'Whislash'. From the match where you beat Ingra, I can tell you still don’t understand what the actual significance of the Major is.
 </t>
   </si>
   <si>
@@ -1264,11 +1264,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lightly, like she’s just messing with me, “Flametail” taps against my shield.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Flametail” Knight"]  Maybe you’d have taken one more point off me here. Maybe not. Who can say, Maria?
+    <t xml:space="preserve">Lightly, like she’s just messing with me, 'Flametail' taps against my shield.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Knight"]  Maybe you’d have taken one more point off me here. Maybe not. Who can say, Maria?
 </t>
   </si>
   <si>
@@ -1276,7 +1276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Flametail” Knight"]  Hahahaha—you know, from the stands, it’s hard to tell just how fiercely stubborn you are, Nearlie.
+    <t xml:space="preserve">[name="'Flametail' Knight"]  Hahahaha—you know, from the stands, it’s hard to tell just how fiercely stubborn you are, Nearlie.
 </t>
   </si>
   <si>
@@ -1288,7 +1288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Fourth place! Earning ten points, the arena was his to walk, and he avoided almost any direct battle! Our survivor with smarts, “Gałązka” Daniel!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Fourth place! Earning ten points, the arena was his to walk, and he avoided almost any direct battle! Our survivor with smarts, 'Gałązka' Daniel!  
 </t>
   </si>
   <si>
@@ -1296,11 +1296,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Second place! In the starting skirmishes, he beat three knights with his own hands! He made the arena’s corner his own with his tremendous shields! The walking fortress, “Limestone” Marko!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  And our champion tonight, with twenty-two fresh points to her name! A near uninterrupted combo of victories! The super-rookie who never drags her feet—”Flametail” Sonna! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Second place! In the starting skirmishes, he beat three knights with his own hands! He made the arena’s corner his own with his tremendous shields! The walking fortress, 'Limestone' Marko!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  And our champion tonight, with twenty-two fresh points to her name! A near uninterrupted combo of victories! The super-rookie who never drags her feet—'Flametail' Sonna! 
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_04_end.xlsx
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Wait—as I was saying that, it looks like 'Hoarhair' has taken a point off 'Springwater'—oh! And 'Drifter' Dorka barges in to pick them off! Now that’s what I call productive!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Wait—as I was saying that, it looks like 'Hoarhair' has taken a point off 'Springwater'—oh! And 'Drifter' Dorka barges in to pick them off! Now that's what I call productive!   
 </t>
   </si>
   <si>
@@ -964,15 +964,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="'Gałązka' Knight"]  That’s all you’re capable of? How the hell did you beat Ingra?! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Your swordhand... is nothing compared to my auntie’s!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="'Gałązka' Knight"]  Heh, I’ll tear you right off that scoreboard, 'Nearl!' Watch this!
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  That's all you're capable of? How the hell did you beat Ingra?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Your swordhand... is nothing compared to my auntie's!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  Heh, I'll tear you right off that scoreboard, 'Nearl!' Watch this!
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Fancy seeing you again, young Nearl. You’ve got nowhere to run now.
+    <t xml:space="preserve">[name="Passing Fan"]  Fancy seeing you again, young Nearl. You've got nowhere to run now.
 </t>
   </si>
   <si>
@@ -996,15 +996,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  God, I hate that guy. You’re too loud!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Anyway, we’re running out of foes to fight. Looks like we finally get to size each other up, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  —If all we’re doing is measuring, I’ll gladly keep you company.
+    <t xml:space="preserve">[name="Passing Fan"]  God, I hate that guy. You're too loud!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Anyway, we're running out of foes to fight. Looks like we finally get to size each other up, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  —If all we're doing is measuring, I'll gladly keep you company.
 </t>
   </si>
   <si>
@@ -1036,11 +1036,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (What did she do just now...? She wasn’t that fast—more like just too dexterous...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Ahh. I see how you held up for so long against Ingra and Szewczyk now... you’ve got a better foundation than I thought.
+    <t xml:space="preserve">[name="Maria"]  (What did she do just now...? She wasn't that fast—more like just too dexterous...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Ahh. I see how you held up for so long against Ingra and Szewczyk now... you've got a better foundation than I thought.
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Nn-huh. You’ve got a sharp eye too. You know, you learn pretty quick.
+    <t xml:space="preserve">[name="Passing Fan"]  Nn-huh. You've got a sharp eye too. You know, you learn pretty quick.
 </t>
   </si>
   <si>
@@ -1060,11 +1060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  And now you’re down one point. I think me and this format are gonna get along just fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Keep on like this, and every point you got from capping Plastic’s gonna go down the drain, you know that?
+    <t xml:space="preserve">[name="Passing Fan"]  And now you're down one point. I think me and this format are gonna get along just fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Keep on like this, and every point you got from capping Plastic's gonna go down the drain, you know that?
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Can’t you just lie down and bite it for one second?! 
+    <t xml:space="preserve">[name="Passing Fan"]  Can't you just lie down and bite it for one second?! 
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="'Gałązka' Knight"]  Don’t waste your breath! You’ll meet your end right here! 
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  Don't waste your breath! You'll meet your end right here! 
 </t>
   </si>
   <si>
@@ -1096,11 +1096,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="'Gałązka' Knight"]  What the hell? Arts—no, you can’t be, you’re not even armed!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="'Gałązka' Knight"]  No, you... you... you can’t be—
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  What the hell? Arts—no, you can't be, you're not even armed!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Gałązka' Knight"]  No, you... you... you can't be—
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  D’ja know? Fun fact, I’m Infected.
+    <t xml:space="preserve">[name="Passing Fan"]  D'ja know? Fun fact, I'm Infected.
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  ...But when you said Infected, you weren’t just saying it, right?
+    <t xml:space="preserve">[name="Maria"]  ...But when you said Infected, you weren't just saying it, right?
 </t>
   </si>
   <si>
@@ -1136,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Isn’t it a shame?
+    <t xml:space="preserve">[name="Passing Fan"]  Isn't it a shame?
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  When the Blood Knight took the title, they went 'yeah, we’ll officially let Infected be knights'—but when the Radiant Knight got infected, they chased her completely out of Kazimierz. Doesn’t that suck?
+    <t xml:space="preserve">[name="Passing Fan"]  When the Blood Knight took the title, they went 'yeah, we'll officially let Infected be knights'—but when the Radiant Knight got infected, they chased her completely out of Kazimierz. Doesn't that suck?
 </t>
   </si>
   <si>
@@ -1160,31 +1160,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  They think it’s funny to lock you in a cage of gloompincer first. They think it’s funny to make you trample the blood of other Infected, leaving one footprint at a time... they make you win back your humanity, to prove you’re a normal, living, breathing person.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Welcome to the bottom line. They weren’t gonna give the Infected any respect for a single second. 'Just throw them into the machine. Make them one more symbol of our progress.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  ...Don’t you think I have the right to hate it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Our sights are set on every noble knight who thinks her opinion means the world... we’ll go under their own rules, cut them right where it hurts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Honestly, I’m not here to knock you out of the game... after all, I respect the Radiant Knight from the bottom of my heart. Being Infected doesn’t sway me there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Let’s call the points I’ve already taken a fee, and here’s a lesson on behalf of 'Whislash'. From the match where you beat Ingra, I can tell you still don’t understand what the actual significance of the Major is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Blind enthusiasm? Riding your own efforts, tuning all the warning signs out? In any ideal scenario, worst is you’d fall flat on your face. But this is the Major. That’ll kill you.
+    <t xml:space="preserve">[name="Passing Fan"]  They think it's funny to lock you in a cage of gloompincer first. They think it's funny to make you trample the blood of other Infected, leaving one footprint at a time... they make you win back your humanity, to prove you're a normal, living, breathing person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Welcome to the bottom line. They weren't gonna give the Infected any respect for a single second. 'Just throw them into the machine. Make them one more symbol of our progress.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  ...Don't you think I have the right to hate it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Our sights are set on every noble knight who thinks her opinion means the world... we'll go under their own rules, cut them right where it hurts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Honestly, I'm not here to knock you out of the game... after all, I respect the Radiant Knight from the bottom of my heart. Being Infected doesn't sway me there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Let's call the points I've already taken a fee, and here's a lesson on behalf of 'Whislash.' From the match where you beat Ingra, I can tell you still don't understand what the actual significance of the Major is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Blind enthusiasm? Riding your own efforts, tuning all the warning signs out? In any ideal scenario, worst is you'd fall flat on your face. But this is the Major. That'll kill you.
 </t>
   </si>
   <si>
@@ -1208,15 +1208,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  That’s one point back, Flametail! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Goddamn. Didn’t think you were so stupid thirsty for it—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  —But hey, now you look like the Radiant Knight’s sister!
+    <t xml:space="preserve">[name="Maria"]  That's one point back, Flametail! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  Goddamn. Didn't think you were so stupid thirsty for it—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  —But hey, now you look like the Radiant Knight's sister!
 </t>
   </si>
   <si>
@@ -1228,15 +1228,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">We just talked a little, simple as that. Facing her, I can’t feel any of the same immense, nauseating pressure Szewczyk and Ingra had... is it just because of her nature?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yet she’s so strong. Ngh. And fast. And masterful.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Passing Fan"]  You’re smiling? You’re that confident?
+    <t xml:space="preserve">We just talked a little, simple as that. Facing her, I can't feel any of the same immense, nauseating pressure Szewczyk and Ingra had... is it just because of her nature?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yet she's so strong. Ngh. And fast. And masterful.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Passing Fan"]  You're smiling? You're that confident?
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Passing Fan"]  Eh. Give it a try and you’ll find out.
+    <t xml:space="preserve">[name="Passing Fan"]  Eh. Give it a try and you'll find out.
 </t>
   </si>
   <si>
@@ -1260,23 +1260,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">By just a hair—by just the slightest hair, we could’ve been touching the other’s armor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lightly, like she’s just messing with me, 'Flametail' taps against my shield.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="'Flametail' Knight"]  Maybe you’d have taken one more point off me here. Maybe not. Who can say, Maria?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Could’ve been two, maybe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="'Flametail' Knight"]  Hahahaha—you know, from the stands, it’s hard to tell just how fiercely stubborn you are, Nearlie.
+    <t xml:space="preserve">By just a hair—by just the slightest hair, we could've been touching the other's armor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightly, like she's just messing with me, 'Flametail' taps against my shield.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Knight"]  Maybe you'd have taken one more point off me here. Maybe not. Who can say, Maria?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Could've been two, maybe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Flametail' Knight"]  Hahahaha—you know, from the stands, it's hard to tell just how fiercely stubborn you are, Nearlie.
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Yo, audience! Here’s the deciding moment your wallets have been waiting for! Even if your favorite knight started out getting knocked around six ways from Sunday, don’t you lose the light! The Arena’s here to welcome you back any time!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Yo, audience! Here's the deciding moment your wallets have been waiting for! Even if your favorite knight started out getting knocked around six ways from Sunday, don't you lose the light! The Arena's here to welcome you back any time!
 </t>
   </si>
   <si>
@@ -1296,7 +1296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Second place! In the starting skirmishes, he beat three knights with his own hands! He made the arena’s corner his own with his tremendous shields! The walking fortress, 'Limestone' Marko!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Second place! In the starting skirmishes, he beat three knights with his own hands! He made the arena's corner his own with his tremendous shields! The walking fortress, 'Limestone' Marko!   
 </t>
   </si>
   <si>
@@ -1304,7 +1304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  And that win of hers means a mean mountain of money, so let’s make some mega noise—! Coming up! We’ll be announcing the lottery draws for each prize pool! Tonight, while the knights strike the sky, the audience strikes it big! All at the Fireblade Arena!    
+    <t xml:space="preserve">[name="Greatmouth Mob"]  And that win of hers means a mean mountain of money, so let's make some mega noise—! Coming up! We'll be announcing the lottery draws for each prize pool! Tonight, while the knights strike the sky, the audience strikes it big! All at the Fireblade Arena!    
 </t>
   </si>
   <si>
@@ -1316,11 +1316,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Uh, can we not with the niceness, Spokesman, sir. You’re the ones who yelled for me anyway, right? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Hardly, hardly. I’m merely the General Chamber’s mouthpiece, working as its directors will it. How could I dare think to command the mighty Platinum?
+    <t xml:space="preserve">[name="Platinum"]  Uh, can we not with the niceness, Spokesman, sir. You're the ones who yelled for me anyway, right? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Hardly, hardly. I'm merely the General Chamber's mouthpiece, working as its directors will it. How could I dare think to command the mighty Platinum?
 </t>
   </si>
   <si>
@@ -1328,7 +1328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Ugh, this sucks... I hate overtime. I already had enough work before you called me... Seriously, I wanna go on vacation to Sami once the Major’s done.
+    <t xml:space="preserve">[name="Platinum"]  Ugh, this sucks... I hate overtime. I already had enough work before you called me... Seriously, I wanna go on vacation to Sami once the Major's done.
 </t>
   </si>
   <si>
@@ -1336,7 +1336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  I gotta wait until work’s over, thoughhh—
+    <t xml:space="preserve">[name="Platinum"]  I gotta wait until work's over, thoughhh—
 </t>
   </si>
   <si>
@@ -1352,11 +1352,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  I’m back! Where’s the chef? Let’s get him going!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  He’s got a big meal to make tonight, and Maria’ll be here soon... she needs a feast and then some! Don’t say it was me who called for it.
+    <t xml:space="preserve">[name="Zofia"]  I'm back! Where's the chef? Let's get him going!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  He's got a big meal to make tonight, and Maria'll be here soon... she needs a feast and then some! Don't say it was me who called for it.
 </t>
   </si>
   <si>
@@ -1368,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  They can wait until Maria’s back—
+    <t xml:space="preserve">[name="Zofia"]  They can wait until Maria's back—
 </t>
   </si>
   <si>
@@ -1376,7 +1376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  You’re the one who... *sigh*... I remember you had your own little company, and then you broke into my place like this, thinking you’d make off with all my sponsorship rights.
+    <t xml:space="preserve">[name="Zofia"]  You're the one who... *sigh*... I remember you had your own little company, and then you broke into my place like this, thinking you'd make off with all my sponsorship rights.
 </t>
   </si>
   <si>
@@ -1384,19 +1384,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  I, uh, there’s some... I have some info here... probably some of it’s rumors...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  But don’t tell anyone! True or false, the event plans here are all top, top secret... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  But I think you’ve guessed that already... just treat this as me paying you back... and, uh, I hope things turn out well for you...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  I haven’t seen a good knight in a long time... who had a happy ending.
+    <t xml:space="preserve">[name="Corporate Employee"]  I, uh, there's some... I have some info here... probably some of it's rumors...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  But don't tell anyone! True or false, the event plans here are all top, top secret... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  But I think you've guessed that already... just treat this as me paying you back... and, uh, I hope things turn out well for you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  I haven't seen a good knight in a long time... who had a happy ending.
 </t>
   </si>
   <si>
